--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6224,7 +6225,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -6240,6 +6240,1428 @@
       </c>
       <c r="H71" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7667,4 +7668,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3413</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9734</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8978,4 +8979,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8987,7 +8988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8998,17 +8999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9018,14 +9039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.11</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9034,14 +9077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.24</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9050,14 +9115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.64</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9066,13 +9153,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5733</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>49.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9880,7 +9881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9891,17 +9892,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9911,14 +9932,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.44</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9927,14 +9970,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.11</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9943,14 +10008,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.24</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9959,14 +10046,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48.64</v>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -9975,13 +10084,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>49.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10317,7 +10318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10328,17 +10329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10348,14 +10369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.42</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10364,14 +10407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.44</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10380,14 +10445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.11</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -10396,14 +10483,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.24</v>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -10412,14 +10521,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.64</v>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10428,13 +10559,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>70</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>49.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>12.42</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>25.44</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>33.11</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>29.24</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>48.64</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>49.02</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011058</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.01</t>
+          <t>44.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9380</t>
+          <t>2.5427</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.73</t>
+          <t>51.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6576</t>
+          <t>2.5016</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.09</t>
+          <t>49.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.93</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1032</t>
+          <t>2.0124</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.22</t>
+          <t>36.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6731</t>
+          <t>1.6006</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>169105</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.39</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7053</t>
+          <t>0.5760</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>012568</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>天弘高端制造混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6016</t>
+          <t>0.3977</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3276</t>
+          <t>0.3060</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,32 +939,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>007177</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>浙商智能行业优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1504</t>
+          <t>0.2811</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002409</t>
+          <t>501081</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合A</t>
+          <t>中欧科创主题混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.2298</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,1480 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002410</t>
+          <t>519021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏新活力灵活配置混合C</t>
+          <t>国泰金鼎价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>57.25</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.2272</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1102,26 +2563,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.02</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>91.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3337</t>
+          <t>2.9380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1140,26 +2601,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.07</t>
+          <t>52.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.0455</t>
+          <t>2.6576</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1178,26 +2639,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>60.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.35</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3888</t>
+          <t>2.1032</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1216,26 +2677,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.63</t>
+          <t>45.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8983</t>
+          <t>1.6731</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1244,36 +2705,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>169105</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6824</t>
+          <t>0.7053</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1282,36 +2743,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3782</t>
+          <t>0.6016</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1320,36 +2781,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013049</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业能源革新股票A</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>91.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3018</t>
+          <t>0.3276</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1368,26 +2829,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1497</t>
+          <t>0.1504</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1396,36 +2857,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013050</t>
+          <t>002409</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴业能源革新股票C</t>
+          <t>华夏新活力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1434,36 +2895,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>002410</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>华夏新活力灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1081</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1472,6 +2933,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +4260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3673,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5095,7 +6992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7804,7 +9701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
+++ b/数据整理/stocks/A股/科创板/688002-睿创微纳.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>12.42</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>25.44</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>33.11</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>29.24</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>48.64</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3122 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>80</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>49.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5668</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8839</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6409</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4326</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3726,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2489,442 +6982,6 @@
       </c>
       <c r="H49" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011058</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>72.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9380</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6576</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>60.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.1032</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>45.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6731</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7053</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6016</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011059</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3276</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1504</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002409</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏新活力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>57.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002410</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新活力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>57.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2999,26 +7056,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.02</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>91.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3337</t>
+          <t>2.9380</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3037,26 +7094,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.07</t>
+          <t>52.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.0455</t>
+          <t>2.6576</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3075,26 +7132,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>60.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.35</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3888</t>
+          <t>2.1032</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3113,26 +7170,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.63</t>
+          <t>45.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.8983</t>
+          <t>1.6731</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3141,36 +7198,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>169105</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6824</t>
+          <t>0.7053</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3179,36 +7236,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3782</t>
+          <t>0.6016</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3217,36 +7274,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013049</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业能源革新股票A</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>91.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3018</t>
+          <t>0.3276</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3265,26 +7322,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1497</t>
+          <t>0.1504</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3293,36 +7350,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013050</t>
+          <t>002409</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴业能源革新股票C</t>
+          <t>华夏新活力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3331,36 +7388,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>002410</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>华夏新活力灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>57.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1081</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3369,6 +7426,442 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4260,7 +8753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5570,7 +10063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6992,7 +11485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9699,3096 +14192,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.4283</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.3236</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.3503</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5668</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.5196</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160630</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证国防指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>70.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.5079</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.4413</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>36.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8839</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.7362</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏军工安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.6226</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519035</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国天博创新混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>36.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.4063</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.1764</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000924</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.1654</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9433</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9274</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8142</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7249</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.6580</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6504</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000513</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6439</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.6409</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.6011</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.79</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5827</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>16.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.5705</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.4449</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>12.86</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4360</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004374</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.4326</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.4316</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.4201</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3772</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005738</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长城智能产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>12.94</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.3455</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>512670</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华中证国防ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.3300</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.3292</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.3279</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2720</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2648</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2218</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1962</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1814</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004375</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>160643</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1700</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>010364</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1523</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009419</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1335</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0991</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0601</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>007579</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>001531</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>招商安益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>001154</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>北信瑞丰平安中国主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>009420</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>宝盈祥明一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>